--- a/data/cd_rcv.xlsx
+++ b/data/cd_rcv.xlsx
@@ -14,18 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Algorithm</t>
   </si>
   <si>
-    <t>State Based</t>
-  </si>
-  <si>
-    <t>Non State</t>
-  </si>
-  <si>
-    <t>One Sided</t>
+    <t>State Based mean</t>
+  </si>
+  <si>
+    <t>State Based std</t>
+  </si>
+  <si>
+    <t>Non State mean</t>
+  </si>
+  <si>
+    <t>Non State std</t>
+  </si>
+  <si>
+    <t>One Sided mean</t>
+  </si>
+  <si>
+    <t>One Sided std</t>
   </si>
   <si>
     <t>LR</t>
@@ -37,16 +46,13 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>CART</t>
+    <t>DTREE</t>
   </si>
   <si>
     <t>RTREE</t>
   </si>
   <si>
     <t>XTREE</t>
-  </si>
-  <si>
-    <t>NB</t>
   </si>
   <si>
     <t>SVM</t>
@@ -407,13 +413,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,141 +432,196 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>0.8688928220255654</v>
+        <v>0.8971001896333755</v>
       </c>
       <c r="D2">
-        <v>0.8699096774193549</v>
+        <v>0.02683384970588557</v>
       </c>
       <c r="E2">
-        <v>0.8880614362806142</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.8791858678955453</v>
+      </c>
+      <c r="F2">
+        <v>0.03489014928222599</v>
+      </c>
+      <c r="G2">
+        <v>0.8933277731442869</v>
+      </c>
+      <c r="H2">
+        <v>0.0196568647042139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0.9051996066863323</v>
+        <v>0.9086678255372946</v>
       </c>
       <c r="D3">
-        <v>0.9197548387096773</v>
+        <v>0.02927036970641505</v>
       </c>
       <c r="E3">
-        <v>0.9117351598173518</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.9065796210957501</v>
+      </c>
+      <c r="F3">
+        <v>0.03875422606649659</v>
+      </c>
+      <c r="G3">
+        <v>0.914303586321935</v>
+      </c>
+      <c r="H3">
+        <v>0.01430339179504787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0.9326607669616518</v>
+        <v>0.9326011378002528</v>
       </c>
       <c r="D4">
-        <v>0.9309935483870968</v>
+        <v>0.01581265494325974</v>
       </c>
       <c r="E4">
-        <v>0.9244582814445828</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.9323092677931388</v>
+      </c>
+      <c r="F4">
+        <v>0.02962679306039942</v>
+      </c>
+      <c r="G4">
+        <v>0.9334278565471225</v>
+      </c>
+      <c r="H4">
+        <v>0.01430079217560514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.7909183874139626</v>
+        <v>0.769326801517067</v>
       </c>
       <c r="D5">
-        <v>0.6513161290322581</v>
+        <v>0.03675448364489299</v>
       </c>
       <c r="E5">
-        <v>0.7424616023246161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.6748079877112134</v>
+      </c>
+      <c r="F5">
+        <v>0.0496699235415331</v>
+      </c>
+      <c r="G5">
+        <v>0.736555462885738</v>
+      </c>
+      <c r="H5">
+        <v>0.03554031660914911</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>0.9069695181907571</v>
+        <v>0.9077749683944374</v>
       </c>
       <c r="D6">
-        <v>0.8987612903225806</v>
+        <v>0.02953923664450255</v>
       </c>
       <c r="E6">
-        <v>0.9181029472810295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.9001280081925243</v>
+      </c>
+      <c r="F6">
+        <v>0.03877553038484891</v>
+      </c>
+      <c r="G6">
+        <v>0.9015012510425354</v>
+      </c>
+      <c r="H6">
+        <v>0.02681678081885578</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>0.8945565388397247</v>
+        <v>0.8500790139064476</v>
       </c>
       <c r="D7">
-        <v>0.9116129032258063</v>
+        <v>0.03751796611568015</v>
       </c>
       <c r="E7">
-        <v>0.8735201328352012</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.8549923195084486</v>
+      </c>
+      <c r="F7">
+        <v>0.03768108957928044</v>
+      </c>
+      <c r="G7">
+        <v>0.8413678065054212</v>
+      </c>
+      <c r="H7">
+        <v>0.02057022353591244</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>0.976967551622419</v>
+        <v>0.8917746523388116</v>
       </c>
       <c r="D8">
-        <v>0.9711612903225806</v>
+        <v>0.02872272441916114</v>
       </c>
       <c r="E8">
-        <v>0.9745205479452055</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9">
-        <v>0.8848377581120943</v>
-      </c>
-      <c r="D9">
-        <v>0.8634967741935483</v>
-      </c>
-      <c r="E9">
-        <v>0.8962640099626402</v>
+        <v>0.8727342549923195</v>
+      </c>
+      <c r="F8">
+        <v>0.04819047903038755</v>
+      </c>
+      <c r="G8">
+        <v>0.89790658882402</v>
+      </c>
+      <c r="H8">
+        <v>0.02025615884426553</v>
       </c>
     </row>
   </sheetData>
